--- a/2024/Day 3.xlsx
+++ b/2024/Day 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FV395CS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyaustralia-my.sharepoint.com/personal/joshua_bryden_au_ey_com/Documents/Desktop/Github/AdventofCode/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13625066-B81D-461C-B718-8698F31037BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{13625066-B81D-461C-B718-8698F31037BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{012E4272-B284-4807-8DDA-72F35D42D611}"/>
   <bookViews>
-    <workbookView xWindow="28815" yWindow="-16365" windowWidth="29040" windowHeight="15720" xr2:uid="{D56258D5-823C-4A60-8067-9835E87A997F}"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{D56258D5-823C-4A60-8067-9835E87A997F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
